--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cadm3-Cadm1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cadm3-Cadm1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -91,13 +91,13 @@
     <t>Neutrophils</t>
   </si>
   <si>
+    <t>Cadm3</t>
+  </si>
+  <si>
+    <t>Cadm1</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Cadm3</t>
-  </si>
-  <si>
-    <t>Cadm1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.179958</v>
+        <v>2.275817666666666</v>
       </c>
       <c r="H2">
-        <v>12.539874</v>
+        <v>6.827452999999999</v>
       </c>
       <c r="I2">
-        <v>0.3177102277270478</v>
+        <v>0.2244360559441497</v>
       </c>
       <c r="J2">
-        <v>0.3177102277270478</v>
+        <v>0.2244360559441497</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.835299333333333</v>
+        <v>0.9457220000000001</v>
       </c>
       <c r="N2">
-        <v>5.505898</v>
+        <v>2.837166</v>
       </c>
       <c r="O2">
-        <v>0.08495488142572299</v>
+        <v>0.09427862265429605</v>
       </c>
       <c r="P2">
-        <v>0.08495488142572299</v>
+        <v>0.09427862265429604</v>
       </c>
       <c r="Q2">
-        <v>7.671474130761334</v>
+        <v>2.152290835355333</v>
       </c>
       <c r="R2">
-        <v>69.043267176852</v>
+        <v>19.370617518198</v>
       </c>
       <c r="S2">
-        <v>0.02699103472429079</v>
+        <v>0.02115952222837697</v>
       </c>
       <c r="T2">
-        <v>0.02699103472429079</v>
+        <v>0.02115952222837697</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.179958</v>
+        <v>2.275817666666666</v>
       </c>
       <c r="H3">
-        <v>12.539874</v>
+        <v>6.827452999999999</v>
       </c>
       <c r="I3">
-        <v>0.3177102277270478</v>
+        <v>0.2244360559441497</v>
       </c>
       <c r="J3">
-        <v>0.3177102277270478</v>
+        <v>0.2244360559441497</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.048275</v>
       </c>
       <c r="O3">
-        <v>0.0007448733886510026</v>
+        <v>0.001604171383921893</v>
       </c>
       <c r="P3">
-        <v>0.0007448733886510025</v>
+        <v>0.001604171383921893</v>
       </c>
       <c r="Q3">
-        <v>0.06726249081666667</v>
+        <v>0.03662169928611111</v>
       </c>
       <c r="R3">
-        <v>0.60536241735</v>
+        <v>0.3295952935749999</v>
       </c>
       <c r="S3">
-        <v>0.0002366538939361278</v>
+        <v>0.000360033898465898</v>
       </c>
       <c r="T3">
-        <v>0.0002366538939361278</v>
+        <v>0.0003600338984658979</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.179958</v>
+        <v>2.275817666666666</v>
       </c>
       <c r="H4">
-        <v>12.539874</v>
+        <v>6.827452999999999</v>
       </c>
       <c r="I4">
-        <v>0.3177102277270478</v>
+        <v>0.2244360559441497</v>
       </c>
       <c r="J4">
-        <v>0.3177102277270478</v>
+        <v>0.2244360559441497</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.421768666666668</v>
+        <v>0.493532</v>
       </c>
       <c r="N4">
-        <v>16.265306</v>
+        <v>1.480596</v>
       </c>
       <c r="O4">
-        <v>0.2509703489935886</v>
+        <v>0.04919999449713556</v>
       </c>
       <c r="P4">
-        <v>0.2509703489935885</v>
+        <v>0.04919999449713555</v>
       </c>
       <c r="Q4">
-        <v>22.66276531238267</v>
+        <v>1.123188844665333</v>
       </c>
       <c r="R4">
-        <v>203.964887811444</v>
+        <v>10.108699601988</v>
       </c>
       <c r="S4">
-        <v>0.07973584673148967</v>
+        <v>0.01104225271741097</v>
       </c>
       <c r="T4">
-        <v>0.07973584673148966</v>
+        <v>0.01104225271741097</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.179958</v>
+        <v>2.275817666666666</v>
       </c>
       <c r="H5">
-        <v>12.539874</v>
+        <v>6.827452999999999</v>
       </c>
       <c r="I5">
-        <v>0.3177102277270478</v>
+        <v>0.2244360559441497</v>
       </c>
       <c r="J5">
-        <v>0.3177102277270478</v>
+        <v>0.2244360559441497</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.833872666666667</v>
+        <v>3.928699333333333</v>
       </c>
       <c r="N5">
-        <v>11.501618</v>
+        <v>11.786098</v>
       </c>
       <c r="O5">
-        <v>0.1774676162533271</v>
+        <v>0.3916503602216272</v>
       </c>
       <c r="P5">
-        <v>0.1774676162533271</v>
+        <v>0.3916503602216272</v>
       </c>
       <c r="Q5">
-        <v>16.02542672401467</v>
+        <v>8.941003349821553</v>
       </c>
       <c r="R5">
-        <v>144.228840516132</v>
+        <v>80.46903014839398</v>
       </c>
       <c r="S5">
-        <v>0.05638327677402089</v>
+        <v>0.08790046215724749</v>
       </c>
       <c r="T5">
-        <v>0.05638327677402089</v>
+        <v>0.08790046215724751</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.179958</v>
+        <v>2.275817666666666</v>
       </c>
       <c r="H6">
-        <v>12.539874</v>
+        <v>6.827452999999999</v>
       </c>
       <c r="I6">
-        <v>0.3177102277270478</v>
+        <v>0.2244360559441497</v>
       </c>
       <c r="J6">
-        <v>0.3177102277270478</v>
+        <v>0.2244360559441497</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.133543</v>
+        <v>0.7661526666666667</v>
       </c>
       <c r="N6">
-        <v>3.400628999999999</v>
+        <v>2.298458</v>
       </c>
       <c r="O6">
-        <v>0.05247101080838673</v>
+        <v>0.07637743243389636</v>
       </c>
       <c r="P6">
-        <v>0.05247101080838674</v>
+        <v>0.07637743243389634</v>
       </c>
       <c r="Q6">
-        <v>4.738162131193999</v>
+        <v>1.743623774163778</v>
       </c>
       <c r="R6">
-        <v>42.64345918074599</v>
+        <v>15.692613967474</v>
       </c>
       <c r="S6">
-        <v>0.01667057679300093</v>
+        <v>0.01714184969860447</v>
       </c>
       <c r="T6">
-        <v>0.01667057679300094</v>
+        <v>0.01714184969860447</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,14 +838,14 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
         <v>3</v>
       </c>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.179958</v>
+        <v>2.275817666666666</v>
       </c>
       <c r="H7">
-        <v>12.539874</v>
+        <v>6.827452999999999</v>
       </c>
       <c r="I7">
-        <v>0.3177102277270478</v>
+        <v>0.2244360559441497</v>
       </c>
       <c r="J7">
-        <v>0.3177102277270478</v>
+        <v>0.2244360559441497</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.362648666666667</v>
+        <v>3.880941666666666</v>
       </c>
       <c r="N7">
-        <v>28.087946</v>
+        <v>11.642825</v>
       </c>
       <c r="O7">
-        <v>0.4333912691303236</v>
+        <v>0.386889418809123</v>
       </c>
       <c r="P7">
-        <v>0.4333912691303236</v>
+        <v>0.3868894188091229</v>
       </c>
       <c r="Q7">
-        <v>39.13547819542267</v>
+        <v>8.832315608302775</v>
       </c>
       <c r="R7">
-        <v>352.219303758804</v>
+        <v>79.49084047472498</v>
       </c>
       <c r="S7">
-        <v>0.1376928388103094</v>
+        <v>0.08683193524404388</v>
       </c>
       <c r="T7">
-        <v>0.1376928388103094</v>
+        <v>0.08683193524404387</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>18.949474</v>
       </c>
       <c r="I8">
-        <v>0.4801038431365237</v>
+        <v>0.6229182693423464</v>
       </c>
       <c r="J8">
-        <v>0.4801038431365237</v>
+        <v>0.6229182693423464</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.835299333333333</v>
+        <v>0.9457220000000001</v>
       </c>
       <c r="N8">
-        <v>5.505898</v>
+        <v>2.837166</v>
       </c>
       <c r="O8">
-        <v>0.08495488142572299</v>
+        <v>0.09427862265429605</v>
       </c>
       <c r="P8">
-        <v>0.08495488142572299</v>
+        <v>0.09427862265429604</v>
       </c>
       <c r="Q8">
-        <v>11.59265233307245</v>
+        <v>5.973644816742668</v>
       </c>
       <c r="R8">
-        <v>104.333870997652</v>
+        <v>53.76280335068401</v>
       </c>
       <c r="S8">
-        <v>0.04078716506569728</v>
+        <v>0.05872787645979423</v>
       </c>
       <c r="T8">
-        <v>0.04078716506569728</v>
+        <v>0.05872787645979422</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>18.949474</v>
       </c>
       <c r="I9">
-        <v>0.4801038431365237</v>
+        <v>0.6229182693423464</v>
       </c>
       <c r="J9">
-        <v>0.4801038431365237</v>
+        <v>0.6229182693423464</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,10 +1001,10 @@
         <v>0.048275</v>
       </c>
       <c r="O9">
-        <v>0.0007448733886510026</v>
+        <v>0.001604171383921893</v>
       </c>
       <c r="P9">
-        <v>0.0007448733886510025</v>
+        <v>0.001604171383921893</v>
       </c>
       <c r="Q9">
         <v>0.1016428730388889</v>
@@ -1013,10 +1013,10 @@
         <v>0.9147858573500001</v>
       </c>
       <c r="S9">
-        <v>0.0003576165765414718</v>
+        <v>0.0009992676622011423</v>
       </c>
       <c r="T9">
-        <v>0.0003576165765414717</v>
+        <v>0.0009992676622011421</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1045,10 +1045,10 @@
         <v>18.949474</v>
       </c>
       <c r="I10">
-        <v>0.4801038431365237</v>
+        <v>0.6229182693423464</v>
       </c>
       <c r="J10">
-        <v>0.4801038431365237</v>
+        <v>0.6229182693423464</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.421768666666668</v>
+        <v>0.493532</v>
       </c>
       <c r="N10">
-        <v>16.265306</v>
+        <v>1.480596</v>
       </c>
       <c r="O10">
-        <v>0.2509703489935886</v>
+        <v>0.04919999449713556</v>
       </c>
       <c r="P10">
-        <v>0.2509703489935885</v>
+        <v>0.04919999449713555</v>
       </c>
       <c r="Q10">
-        <v>34.24655479433824</v>
+        <v>3.117390600722667</v>
       </c>
       <c r="R10">
-        <v>308.2189931490441</v>
+        <v>28.056515406504</v>
       </c>
       <c r="S10">
-        <v>0.1204918290651364</v>
+        <v>0.03064757542380865</v>
       </c>
       <c r="T10">
-        <v>0.1204918290651364</v>
+        <v>0.03064757542380864</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1107,10 +1107,10 @@
         <v>18.949474</v>
       </c>
       <c r="I11">
-        <v>0.4801038431365237</v>
+        <v>0.6229182693423464</v>
       </c>
       <c r="J11">
-        <v>0.4801038431365237</v>
+        <v>0.6229182693423464</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.833872666666667</v>
+        <v>3.928699333333333</v>
       </c>
       <c r="N11">
-        <v>11.501618</v>
+        <v>11.786098</v>
       </c>
       <c r="O11">
-        <v>0.1774676162533271</v>
+        <v>0.3916503602216272</v>
       </c>
       <c r="P11">
-        <v>0.1774676162533271</v>
+        <v>0.3916503602216272</v>
       </c>
       <c r="Q11">
-        <v>24.21662347210356</v>
+        <v>24.81559529027244</v>
       </c>
       <c r="R11">
-        <v>217.949611248932</v>
+        <v>223.340357612452</v>
       </c>
       <c r="S11">
-        <v>0.08520288459550014</v>
+        <v>0.2439661645765626</v>
       </c>
       <c r="T11">
-        <v>0.08520288459550014</v>
+        <v>0.2439661645765626</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1148,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
@@ -1169,10 +1169,10 @@
         <v>18.949474</v>
       </c>
       <c r="I12">
-        <v>0.4801038431365237</v>
+        <v>0.6229182693423464</v>
       </c>
       <c r="J12">
-        <v>0.4801038431365237</v>
+        <v>0.6229182693423464</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.133543</v>
+        <v>0.7661526666666667</v>
       </c>
       <c r="N12">
-        <v>3.400628999999999</v>
+        <v>2.298458</v>
       </c>
       <c r="O12">
-        <v>0.05247101080838673</v>
+        <v>0.07637743243389636</v>
       </c>
       <c r="P12">
-        <v>0.05247101080838674</v>
+        <v>0.07637743243389634</v>
       </c>
       <c r="Q12">
-        <v>7.160014535460666</v>
+        <v>4.839396679010223</v>
       </c>
       <c r="R12">
-        <v>64.44013081914599</v>
+        <v>43.554570111092</v>
       </c>
       <c r="S12">
-        <v>0.02519153394236454</v>
+        <v>0.04757689802853472</v>
       </c>
       <c r="T12">
-        <v>0.02519153394236454</v>
+        <v>0.04757689802853471</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>18.949474</v>
       </c>
       <c r="I13">
-        <v>0.4801038431365237</v>
+        <v>0.6229182693423464</v>
       </c>
       <c r="J13">
-        <v>0.4801038431365237</v>
+        <v>0.6229182693423464</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>9.362648666666667</v>
+        <v>3.880941666666666</v>
       </c>
       <c r="N13">
-        <v>28.087946</v>
+        <v>11.642825</v>
       </c>
       <c r="O13">
-        <v>0.4333912691303236</v>
+        <v>0.386889418809123</v>
       </c>
       <c r="P13">
-        <v>0.4333912691303236</v>
+        <v>0.3868894188091229</v>
       </c>
       <c r="Q13">
-        <v>59.1390891600449</v>
+        <v>24.51393440267222</v>
       </c>
       <c r="R13">
-        <v>532.251802440404</v>
+        <v>220.62540962405</v>
       </c>
       <c r="S13">
-        <v>0.2080728138912838</v>
+        <v>0.2410004871914451</v>
       </c>
       <c r="T13">
-        <v>0.2080728138912838</v>
+        <v>0.2410004871914451</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.01457166666666667</v>
+        <v>0.013972</v>
       </c>
       <c r="H14">
-        <v>0.043715</v>
+        <v>0.041916</v>
       </c>
       <c r="I14">
-        <v>0.001107563170498196</v>
+        <v>0.001377887437812458</v>
       </c>
       <c r="J14">
-        <v>0.001107563170498196</v>
+        <v>0.001377887437812458</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.835299333333333</v>
+        <v>0.9457220000000001</v>
       </c>
       <c r="N14">
-        <v>5.505898</v>
+        <v>2.837166</v>
       </c>
       <c r="O14">
-        <v>0.08495488142572299</v>
+        <v>0.09427862265429605</v>
       </c>
       <c r="P14">
-        <v>0.08495488142572299</v>
+        <v>0.09427862265429604</v>
       </c>
       <c r="Q14">
-        <v>0.02674337011888889</v>
+        <v>0.013213627784</v>
       </c>
       <c r="R14">
-        <v>0.24069033107</v>
+        <v>0.118922650056</v>
       </c>
       <c r="S14">
-        <v>9.409289782117203E-05</v>
+        <v>0.0001299053298096155</v>
       </c>
       <c r="T14">
-        <v>9.409289782117204E-05</v>
+        <v>0.0001299053298096155</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.01457166666666667</v>
+        <v>0.013972</v>
       </c>
       <c r="H15">
-        <v>0.043715</v>
+        <v>0.041916</v>
       </c>
       <c r="I15">
-        <v>0.001107563170498196</v>
+        <v>0.001377887437812458</v>
       </c>
       <c r="J15">
-        <v>0.001107563170498196</v>
+        <v>0.001377887437812458</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1373,22 +1373,22 @@
         <v>0.048275</v>
       </c>
       <c r="O15">
-        <v>0.0007448733886510026</v>
+        <v>0.001604171383921893</v>
       </c>
       <c r="P15">
-        <v>0.0007448733886510025</v>
+        <v>0.001604171383921893</v>
       </c>
       <c r="Q15">
-        <v>0.0002344824027777778</v>
+        <v>0.0002248327666666667</v>
       </c>
       <c r="R15">
-        <v>0.002110341625</v>
+        <v>0.0020234949</v>
       </c>
       <c r="S15">
-        <v>8.249943319540392E-07</v>
+        <v>2.210367598004202E-06</v>
       </c>
       <c r="T15">
-        <v>8.249943319540392E-07</v>
+        <v>2.210367598004201E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1411,16 +1411,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.01457166666666667</v>
+        <v>0.013972</v>
       </c>
       <c r="H16">
-        <v>0.043715</v>
+        <v>0.041916</v>
       </c>
       <c r="I16">
-        <v>0.001107563170498196</v>
+        <v>0.001377887437812458</v>
       </c>
       <c r="J16">
-        <v>0.001107563170498196</v>
+        <v>0.001377887437812458</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.421768666666668</v>
+        <v>0.493532</v>
       </c>
       <c r="N16">
-        <v>16.265306</v>
+        <v>1.480596</v>
       </c>
       <c r="O16">
-        <v>0.2509703489935886</v>
+        <v>0.04919999449713556</v>
       </c>
       <c r="P16">
-        <v>0.2509703489935885</v>
+        <v>0.04919999449713555</v>
       </c>
       <c r="Q16">
-        <v>0.07900420575444445</v>
+        <v>0.006895629104000001</v>
       </c>
       <c r="R16">
-        <v>0.71103785179</v>
+        <v>0.062060661936</v>
       </c>
       <c r="S16">
-        <v>0.0002779655154323776</v>
+        <v>6.779205435804514E-05</v>
       </c>
       <c r="T16">
-        <v>0.0002779655154323776</v>
+        <v>6.779205435804513E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -1473,16 +1473,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.01457166666666667</v>
+        <v>0.013972</v>
       </c>
       <c r="H17">
-        <v>0.043715</v>
+        <v>0.041916</v>
       </c>
       <c r="I17">
-        <v>0.001107563170498196</v>
+        <v>0.001377887437812458</v>
       </c>
       <c r="J17">
-        <v>0.001107563170498196</v>
+        <v>0.001377887437812458</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.833872666666667</v>
+        <v>3.928699333333333</v>
       </c>
       <c r="N17">
-        <v>11.501618</v>
+        <v>11.786098</v>
       </c>
       <c r="O17">
-        <v>0.1774676162533271</v>
+        <v>0.3916503602216272</v>
       </c>
       <c r="P17">
-        <v>0.1774676162533271</v>
+        <v>0.3916503602216272</v>
       </c>
       <c r="Q17">
-        <v>0.0558659145411111</v>
+        <v>0.05489178708533333</v>
       </c>
       <c r="R17">
-        <v>0.5027932308699999</v>
+        <v>0.494026083768</v>
       </c>
       <c r="S17">
-        <v>0.0001965565957182921</v>
+        <v>0.0005396501113641041</v>
       </c>
       <c r="T17">
-        <v>0.0001965565957182922</v>
+        <v>0.0005396501113641041</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,10 +1520,10 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
@@ -1535,16 +1535,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.01457166666666667</v>
+        <v>0.013972</v>
       </c>
       <c r="H18">
-        <v>0.043715</v>
+        <v>0.041916</v>
       </c>
       <c r="I18">
-        <v>0.001107563170498196</v>
+        <v>0.001377887437812458</v>
       </c>
       <c r="J18">
-        <v>0.001107563170498196</v>
+        <v>0.001377887437812458</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.133543</v>
+        <v>0.7661526666666667</v>
       </c>
       <c r="N18">
-        <v>3.400628999999999</v>
+        <v>2.298458</v>
       </c>
       <c r="O18">
-        <v>0.05247101080838673</v>
+        <v>0.07637743243389636</v>
       </c>
       <c r="P18">
-        <v>0.05247101080838674</v>
+        <v>0.07637743243389634</v>
       </c>
       <c r="Q18">
-        <v>0.01651761074833333</v>
+        <v>0.01070468505866667</v>
       </c>
       <c r="R18">
-        <v>0.148658496735</v>
+        <v>0.09634216552800001</v>
       </c>
       <c r="S18">
-        <v>5.81149590901819E-05</v>
+        <v>0.0001052395046830356</v>
       </c>
       <c r="T18">
-        <v>5.811495909018192E-05</v>
+        <v>0.0001052395046830356</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>25</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1597,16 +1597,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.01457166666666667</v>
+        <v>0.013972</v>
       </c>
       <c r="H19">
-        <v>0.043715</v>
+        <v>0.041916</v>
       </c>
       <c r="I19">
-        <v>0.001107563170498196</v>
+        <v>0.001377887437812458</v>
       </c>
       <c r="J19">
-        <v>0.001107563170498196</v>
+        <v>0.001377887437812458</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>9.362648666666667</v>
+        <v>3.880941666666666</v>
       </c>
       <c r="N19">
-        <v>28.087946</v>
+        <v>11.642825</v>
       </c>
       <c r="O19">
-        <v>0.4333912691303236</v>
+        <v>0.386889418809123</v>
       </c>
       <c r="P19">
-        <v>0.4333912691303236</v>
+        <v>0.3868894188091229</v>
       </c>
       <c r="Q19">
-        <v>0.1364293954877778</v>
+        <v>0.05422451696666666</v>
       </c>
       <c r="R19">
-        <v>1.22786455939</v>
+        <v>0.4880206526999999</v>
       </c>
       <c r="S19">
-        <v>0.000480008208104218</v>
+        <v>0.0005330900699996534</v>
       </c>
       <c r="T19">
-        <v>0.0004800082081042181</v>
+        <v>0.0005330900699996534</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.079042</v>
+        <v>1.513488666666667</v>
       </c>
       <c r="H20">
-        <v>6.237126</v>
+        <v>4.540466</v>
       </c>
       <c r="I20">
-        <v>0.1580238144196896</v>
+        <v>0.1492568723927517</v>
       </c>
       <c r="J20">
-        <v>0.1580238144196896</v>
+        <v>0.1492568723927517</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.835299333333333</v>
+        <v>0.9457220000000001</v>
       </c>
       <c r="N20">
-        <v>5.505898</v>
+        <v>2.837166</v>
       </c>
       <c r="O20">
-        <v>0.08495488142572299</v>
+        <v>0.09427862265429605</v>
       </c>
       <c r="P20">
-        <v>0.08495488142572299</v>
+        <v>0.09427862265429604</v>
       </c>
       <c r="Q20">
-        <v>3.815664396572</v>
+        <v>1.431339528817333</v>
       </c>
       <c r="R20">
-        <v>34.340979569148</v>
+        <v>12.882055759356</v>
       </c>
       <c r="S20">
-        <v>0.01342489441646518</v>
+        <v>0.01407173235087665</v>
       </c>
       <c r="T20">
-        <v>0.01342489441646518</v>
+        <v>0.01407173235087665</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.079042</v>
+        <v>1.513488666666667</v>
       </c>
       <c r="H21">
-        <v>6.237126</v>
+        <v>4.540466</v>
       </c>
       <c r="I21">
-        <v>0.1580238144196896</v>
+        <v>0.1492568723927517</v>
       </c>
       <c r="J21">
-        <v>0.1580238144196896</v>
+        <v>0.1492568723927517</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1745,22 +1745,22 @@
         <v>0.048275</v>
       </c>
       <c r="O21">
-        <v>0.0007448733886510026</v>
+        <v>0.001604171383921893</v>
       </c>
       <c r="P21">
-        <v>0.0007448733886510025</v>
+        <v>0.001604171383921893</v>
       </c>
       <c r="Q21">
-        <v>0.03345525085</v>
+        <v>0.02435455512777778</v>
       </c>
       <c r="R21">
-        <v>0.30109725765</v>
+        <v>0.21919099615</v>
       </c>
       <c r="S21">
-        <v>0.0001177077341343513</v>
+        <v>0.0002394336035461339</v>
       </c>
       <c r="T21">
-        <v>0.0001177077341343513</v>
+        <v>0.0002394336035461338</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,10 +1768,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.079042</v>
+        <v>1.513488666666667</v>
       </c>
       <c r="H22">
-        <v>6.237126</v>
+        <v>4.540466</v>
       </c>
       <c r="I22">
-        <v>0.1580238144196896</v>
+        <v>0.1492568723927517</v>
       </c>
       <c r="J22">
-        <v>0.1580238144196896</v>
+        <v>0.1492568723927517</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.421768666666668</v>
+        <v>0.493532</v>
       </c>
       <c r="N22">
-        <v>16.265306</v>
+        <v>1.480596</v>
       </c>
       <c r="O22">
-        <v>0.2509703489935886</v>
+        <v>0.04919999449713556</v>
       </c>
       <c r="P22">
-        <v>0.2509703489935885</v>
+        <v>0.04919999449713555</v>
       </c>
       <c r="Q22">
-        <v>11.272084772284</v>
+        <v>0.7469550886373334</v>
       </c>
       <c r="R22">
-        <v>101.448762950556</v>
+        <v>6.722595797736001</v>
       </c>
       <c r="S22">
-        <v>0.03965929185420757</v>
+        <v>0.007343437300383047</v>
       </c>
       <c r="T22">
-        <v>0.03965929185420757</v>
+        <v>0.007343437300383047</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,10 +1830,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.079042</v>
+        <v>1.513488666666667</v>
       </c>
       <c r="H23">
-        <v>6.237126</v>
+        <v>4.540466</v>
       </c>
       <c r="I23">
-        <v>0.1580238144196896</v>
+        <v>0.1492568723927517</v>
       </c>
       <c r="J23">
-        <v>0.1580238144196896</v>
+        <v>0.1492568723927517</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.833872666666667</v>
+        <v>3.928699333333333</v>
       </c>
       <c r="N23">
-        <v>11.501618</v>
+        <v>11.786098</v>
       </c>
       <c r="O23">
-        <v>0.1774676162533271</v>
+        <v>0.3916503602216272</v>
       </c>
       <c r="P23">
-        <v>0.1774676162533271</v>
+        <v>0.3916503602216272</v>
       </c>
       <c r="Q23">
-        <v>7.970782296652</v>
+        <v>5.946041915740889</v>
       </c>
       <c r="R23">
-        <v>71.73704066986801</v>
+        <v>53.514377241668</v>
       </c>
       <c r="S23">
-        <v>0.02804410965632045</v>
+        <v>0.05845650783817464</v>
       </c>
       <c r="T23">
-        <v>0.02804410965632046</v>
+        <v>0.05845650783817465</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,10 +1892,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
         <v>24</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.079042</v>
+        <v>1.513488666666667</v>
       </c>
       <c r="H24">
-        <v>6.237126</v>
+        <v>4.540466</v>
       </c>
       <c r="I24">
-        <v>0.1580238144196896</v>
+        <v>0.1492568723927517</v>
       </c>
       <c r="J24">
-        <v>0.1580238144196896</v>
+        <v>0.1492568723927517</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.133543</v>
+        <v>0.7661526666666667</v>
       </c>
       <c r="N24">
-        <v>3.400628999999999</v>
+        <v>2.298458</v>
       </c>
       <c r="O24">
-        <v>0.05247101080838673</v>
+        <v>0.07637743243389636</v>
       </c>
       <c r="P24">
-        <v>0.05247101080838674</v>
+        <v>0.07637743243389634</v>
       </c>
       <c r="Q24">
-        <v>2.356683505805999</v>
+        <v>1.159563377936444</v>
       </c>
       <c r="R24">
-        <v>21.210151552254</v>
+        <v>10.436070401428</v>
       </c>
       <c r="S24">
-        <v>0.00829166927439803</v>
+        <v>0.01139985668647208</v>
       </c>
       <c r="T24">
-        <v>0.008291669274398034</v>
+        <v>0.01139985668647208</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,14 +1954,14 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>27</v>
       </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
       <c r="E25">
         <v>3</v>
       </c>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.079042</v>
+        <v>1.513488666666667</v>
       </c>
       <c r="H25">
-        <v>6.237126</v>
+        <v>4.540466</v>
       </c>
       <c r="I25">
-        <v>0.1580238144196896</v>
+        <v>0.1492568723927517</v>
       </c>
       <c r="J25">
-        <v>0.1580238144196896</v>
+        <v>0.1492568723927517</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>9.362648666666667</v>
+        <v>3.880941666666666</v>
       </c>
       <c r="N25">
-        <v>28.087946</v>
+        <v>11.642825</v>
       </c>
       <c r="O25">
-        <v>0.4333912691303236</v>
+        <v>0.386889418809123</v>
       </c>
       <c r="P25">
-        <v>0.4333912691303236</v>
+        <v>0.3868894188091229</v>
       </c>
       <c r="Q25">
-        <v>19.465339809244</v>
+        <v>5.873761228494444</v>
       </c>
       <c r="R25">
-        <v>175.188058283196</v>
+        <v>52.86385105645</v>
       </c>
       <c r="S25">
-        <v>0.068486141484164</v>
+        <v>0.05774590461329913</v>
       </c>
       <c r="T25">
-        <v>0.06848614148416401</v>
+        <v>0.05774590461329913</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,10 +2016,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
@@ -2034,13 +2034,13 @@
         <v>0.020391</v>
       </c>
       <c r="H26">
-        <v>0.06117300000000001</v>
+        <v>0.061173</v>
       </c>
       <c r="I26">
-        <v>0.001549879030741991</v>
+        <v>0.002010914882939724</v>
       </c>
       <c r="J26">
-        <v>0.001549879030741991</v>
+        <v>0.002010914882939724</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.835299333333333</v>
+        <v>0.9457220000000001</v>
       </c>
       <c r="N26">
-        <v>5.505898</v>
+        <v>2.837166</v>
       </c>
       <c r="O26">
-        <v>0.08495488142572299</v>
+        <v>0.09427862265429605</v>
       </c>
       <c r="P26">
-        <v>0.08495488142572299</v>
+        <v>0.09427862265429604</v>
       </c>
       <c r="Q26">
-        <v>0.03742358870600001</v>
+        <v>0.019284217302</v>
       </c>
       <c r="R26">
-        <v>0.3368122983540001</v>
+        <v>0.173557955718</v>
       </c>
       <c r="S26">
-        <v>0.0001316697892809003</v>
+        <v>0.0001895862854385822</v>
       </c>
       <c r="T26">
-        <v>0.0001316697892809003</v>
+        <v>0.0001895862854385822</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,10 +2078,10 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
@@ -2096,13 +2096,13 @@
         <v>0.020391</v>
       </c>
       <c r="H27">
-        <v>0.06117300000000001</v>
+        <v>0.061173</v>
       </c>
       <c r="I27">
-        <v>0.001549879030741991</v>
+        <v>0.002010914882939724</v>
       </c>
       <c r="J27">
-        <v>0.001549879030741991</v>
+        <v>0.002010914882939724</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -2117,22 +2117,22 @@
         <v>0.048275</v>
       </c>
       <c r="O27">
-        <v>0.0007448733886510026</v>
+        <v>0.001604171383921893</v>
       </c>
       <c r="P27">
-        <v>0.0007448733886510025</v>
+        <v>0.001604171383921893</v>
       </c>
       <c r="Q27">
-        <v>0.0003281251750000001</v>
+        <v>0.000328125175</v>
       </c>
       <c r="R27">
         <v>0.002953126575</v>
       </c>
       <c r="S27">
-        <v>1.154463645627918E-06</v>
+        <v>3.225852110714549E-06</v>
       </c>
       <c r="T27">
-        <v>1.154463645627918E-06</v>
+        <v>3.225852110714549E-06</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,10 +2140,10 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
@@ -2158,13 +2158,13 @@
         <v>0.020391</v>
       </c>
       <c r="H28">
-        <v>0.06117300000000001</v>
+        <v>0.061173</v>
       </c>
       <c r="I28">
-        <v>0.001549879030741991</v>
+        <v>0.002010914882939724</v>
       </c>
       <c r="J28">
-        <v>0.001549879030741991</v>
+        <v>0.002010914882939724</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>5.421768666666668</v>
+        <v>0.493532</v>
       </c>
       <c r="N28">
-        <v>16.265306</v>
+        <v>1.480596</v>
       </c>
       <c r="O28">
-        <v>0.2509703489935886</v>
+        <v>0.04919999449713556</v>
       </c>
       <c r="P28">
-        <v>0.2509703489935885</v>
+        <v>0.04919999449713555</v>
       </c>
       <c r="Q28">
-        <v>0.110555284882</v>
+        <v>0.010063611012</v>
       </c>
       <c r="R28">
-        <v>0.9949975639380002</v>
+        <v>0.090572499108</v>
       </c>
       <c r="S28">
-        <v>0.0003889736812431623</v>
+        <v>9.893700117484243E-05</v>
       </c>
       <c r="T28">
-        <v>0.0003889736812431622</v>
+        <v>9.893700117484241E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,10 +2202,10 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
@@ -2220,13 +2220,13 @@
         <v>0.020391</v>
       </c>
       <c r="H29">
-        <v>0.06117300000000001</v>
+        <v>0.061173</v>
       </c>
       <c r="I29">
-        <v>0.001549879030741991</v>
+        <v>0.002010914882939724</v>
       </c>
       <c r="J29">
-        <v>0.001549879030741991</v>
+        <v>0.002010914882939724</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>3.833872666666667</v>
+        <v>3.928699333333333</v>
       </c>
       <c r="N29">
-        <v>11.501618</v>
+        <v>11.786098</v>
       </c>
       <c r="O29">
-        <v>0.1774676162533271</v>
+        <v>0.3916503602216272</v>
       </c>
       <c r="P29">
-        <v>0.1774676162533271</v>
+        <v>0.3916503602216272</v>
       </c>
       <c r="Q29">
-        <v>0.07817649754600001</v>
+        <v>0.08011010810599999</v>
       </c>
       <c r="R29">
-        <v>0.7035884779140001</v>
+        <v>0.7209909729539999</v>
       </c>
       <c r="S29">
-        <v>0.0002750533370667983</v>
+        <v>0.0007875755382783743</v>
       </c>
       <c r="T29">
-        <v>0.0002750533370667983</v>
+        <v>0.0007875755382783743</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,10 +2264,10 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
         <v>24</v>
@@ -2282,13 +2282,13 @@
         <v>0.020391</v>
       </c>
       <c r="H30">
-        <v>0.06117300000000001</v>
+        <v>0.061173</v>
       </c>
       <c r="I30">
-        <v>0.001549879030741991</v>
+        <v>0.002010914882939724</v>
       </c>
       <c r="J30">
-        <v>0.001549879030741991</v>
+        <v>0.002010914882939724</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.133543</v>
+        <v>0.7661526666666667</v>
       </c>
       <c r="N30">
-        <v>3.400628999999999</v>
+        <v>2.298458</v>
       </c>
       <c r="O30">
-        <v>0.05247101080838673</v>
+        <v>0.07637743243389636</v>
       </c>
       <c r="P30">
-        <v>0.05247101080838674</v>
+        <v>0.07637743243389634</v>
       </c>
       <c r="Q30">
-        <v>0.023114075313</v>
+        <v>0.015622619026</v>
       </c>
       <c r="R30">
-        <v>0.208026677817</v>
+        <v>0.140603571234</v>
       </c>
       <c r="S30">
-        <v>8.132371937375496E-05</v>
+        <v>0.0001535885156020454</v>
       </c>
       <c r="T30">
-        <v>8.132371937375498E-05</v>
+        <v>0.0001535885156020454</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,13 +2326,13 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
         <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>25</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2344,13 +2344,13 @@
         <v>0.020391</v>
       </c>
       <c r="H31">
-        <v>0.06117300000000001</v>
+        <v>0.061173</v>
       </c>
       <c r="I31">
-        <v>0.001549879030741991</v>
+        <v>0.002010914882939724</v>
       </c>
       <c r="J31">
-        <v>0.001549879030741991</v>
+        <v>0.002010914882939724</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,400 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>9.362648666666667</v>
+        <v>3.880941666666666</v>
       </c>
       <c r="N31">
-        <v>28.087946</v>
+        <v>11.642825</v>
       </c>
       <c r="O31">
-        <v>0.4333912691303236</v>
+        <v>0.386889418809123</v>
       </c>
       <c r="P31">
-        <v>0.4333912691303236</v>
+        <v>0.3868894188091229</v>
       </c>
       <c r="Q31">
-        <v>0.190913768962</v>
+        <v>0.07913628152499999</v>
       </c>
       <c r="R31">
-        <v>1.718223920658</v>
+        <v>0.7122265337249999</v>
       </c>
       <c r="S31">
-        <v>0.0006717040401317474</v>
+        <v>0.0007780016903351655</v>
       </c>
       <c r="T31">
-        <v>0.0006717040401317474</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>0.5460566666666667</v>
-      </c>
-      <c r="H32">
-        <v>1.63817</v>
-      </c>
-      <c r="I32">
-        <v>0.0415046725154988</v>
-      </c>
-      <c r="J32">
-        <v>0.0415046725154988</v>
-      </c>
-      <c r="K32">
-        <v>3</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>1.835299333333333</v>
-      </c>
-      <c r="N32">
-        <v>5.505898</v>
-      </c>
-      <c r="O32">
-        <v>0.08495488142572299</v>
-      </c>
-      <c r="P32">
-        <v>0.08495488142572299</v>
-      </c>
-      <c r="Q32">
-        <v>1.002177436295556</v>
-      </c>
-      <c r="R32">
-        <v>9.01959692666</v>
-      </c>
-      <c r="S32">
-        <v>0.003526024532167665</v>
-      </c>
-      <c r="T32">
-        <v>0.003526024532167665</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>0.5460566666666667</v>
-      </c>
-      <c r="H33">
-        <v>1.63817</v>
-      </c>
-      <c r="I33">
-        <v>0.0415046725154988</v>
-      </c>
-      <c r="J33">
-        <v>0.0415046725154988</v>
-      </c>
-      <c r="K33">
-        <v>1</v>
-      </c>
-      <c r="L33">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M33">
-        <v>0.01609166666666667</v>
-      </c>
-      <c r="N33">
-        <v>0.048275</v>
-      </c>
-      <c r="O33">
-        <v>0.0007448733886510026</v>
-      </c>
-      <c r="P33">
-        <v>0.0007448733886510025</v>
-      </c>
-      <c r="Q33">
-        <v>0.008786961861111112</v>
-      </c>
-      <c r="R33">
-        <v>0.07908265675000001</v>
-      </c>
-      <c r="S33">
-        <v>3.091572606146972E-05</v>
-      </c>
-      <c r="T33">
-        <v>3.091572606146971E-05</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>0.5460566666666667</v>
-      </c>
-      <c r="H34">
-        <v>1.63817</v>
-      </c>
-      <c r="I34">
-        <v>0.0415046725154988</v>
-      </c>
-      <c r="J34">
-        <v>0.0415046725154988</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>5.421768666666668</v>
-      </c>
-      <c r="N34">
-        <v>16.265306</v>
-      </c>
-      <c r="O34">
-        <v>0.2509703489935886</v>
-      </c>
-      <c r="P34">
-        <v>0.2509703489935885</v>
-      </c>
-      <c r="Q34">
-        <v>2.960592925557779</v>
-      </c>
-      <c r="R34">
-        <v>26.64533633002</v>
-      </c>
-      <c r="S34">
-        <v>0.01041644214607934</v>
-      </c>
-      <c r="T34">
-        <v>0.01041644214607933</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>0.5460566666666667</v>
-      </c>
-      <c r="H35">
-        <v>1.63817</v>
-      </c>
-      <c r="I35">
-        <v>0.0415046725154988</v>
-      </c>
-      <c r="J35">
-        <v>0.0415046725154988</v>
-      </c>
-      <c r="K35">
-        <v>3</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>3.833872666666667</v>
-      </c>
-      <c r="N35">
-        <v>11.501618</v>
-      </c>
-      <c r="O35">
-        <v>0.1774676162533271</v>
-      </c>
-      <c r="P35">
-        <v>0.1774676162533271</v>
-      </c>
-      <c r="Q35">
-        <v>2.093511728784445</v>
-      </c>
-      <c r="R35">
-        <v>18.84160555906</v>
-      </c>
-      <c r="S35">
-        <v>0.007365735294700554</v>
-      </c>
-      <c r="T35">
-        <v>0.007365735294700554</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>0.5460566666666667</v>
-      </c>
-      <c r="H36">
-        <v>1.63817</v>
-      </c>
-      <c r="I36">
-        <v>0.0415046725154988</v>
-      </c>
-      <c r="J36">
-        <v>0.0415046725154988</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>1.133543</v>
-      </c>
-      <c r="N36">
-        <v>3.400628999999999</v>
-      </c>
-      <c r="O36">
-        <v>0.05247101080838673</v>
-      </c>
-      <c r="P36">
-        <v>0.05247101080838674</v>
-      </c>
-      <c r="Q36">
-        <v>0.6189787121033333</v>
-      </c>
-      <c r="R36">
-        <v>5.57080840893</v>
-      </c>
-      <c r="S36">
-        <v>0.002177792120159289</v>
-      </c>
-      <c r="T36">
-        <v>0.002177792120159289</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>0.5460566666666667</v>
-      </c>
-      <c r="H37">
-        <v>1.63817</v>
-      </c>
-      <c r="I37">
-        <v>0.0415046725154988</v>
-      </c>
-      <c r="J37">
-        <v>0.0415046725154988</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>9.362648666666667</v>
-      </c>
-      <c r="N37">
-        <v>28.087946</v>
-      </c>
-      <c r="O37">
-        <v>0.4333912691303236</v>
-      </c>
-      <c r="P37">
-        <v>0.4333912691303236</v>
-      </c>
-      <c r="Q37">
-        <v>5.112536722091112</v>
-      </c>
-      <c r="R37">
-        <v>46.01283049882001</v>
-      </c>
-      <c r="S37">
-        <v>0.01798776269633048</v>
-      </c>
-      <c r="T37">
-        <v>0.01798776269633048</v>
+        <v>0.0007780016903351654</v>
       </c>
     </row>
   </sheetData>
